--- a/spreadsheet/macrofree/cost_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor의 데이터 수집 규칙 -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
+          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인Check backup instances with the underlying datasource not found</t>
+          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>삭제/보관</t>
+          <t>삭제/아카이브</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등)를 삭제하거나 보관합니다.</t>
+          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>삭제/보관</t>
+          <t>삭제/아카이브</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>다시 알림 및 중지 기술 고려(X일 후 서비스 일시 중지, 2배 후 중지, 3배 후 삭제/할당 취소)</t>
+          <t>다시 알림 및 중지 기술 고려(X일 후 서비스 일시 중지, 2X 후 중지, 3배 후 삭제/할당 취소)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>삭제/보관</t>
+          <t>삭제/아카이브</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>사용하지 않는 리소스(이전 백업, 로그, 스토리지 계정 등)를 삭제하거나 보관Delete or archive unused resources (old backups, logs, storage accounts, etc...)</t>
+          <t>사용하지 않는 리소스(이전 백업, 로그, 스토리지 계정 등)를 삭제하거나 보관합니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>삭제/보관</t>
+          <t>삭제/아카이브</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery 스토리지와 미션 크리티컬이 아닌 애플리케이션에 대한 백업 간의 적절한 균형 고려Consider a good balance between Site Recovery Storage and Backup for non mission critical applications</t>
+          <t>중요 업무용이 아닌 응용 프로그램에 대한 Site Recovery 저장소와 Backup 간의 적절한 균형을 고려합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">40개의 서로 다른 Log Analytics 작업 영역 중에서 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용 - 인식 및 계층 크기 조정을 위한 일일 상한 만들기 - 일일 상한을 설정하는 경우 상한에 도달할 때 경고를 만드는 것 외에도 일정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능하면 작업 공간 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">40개의 서로 다른 Log Analytics 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>분리된 리소스 통합 문서 실행 - 고스트 항목 삭제 또는 일시 중지Run orphaned resources workbook - Delete or snooze Ghost Items</t>
+          <t>분리된 리소스 통합 문서 실행 - 고스트 항목 삭제 또는 일시 중지</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제합니다. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용하십시오.</t>
+          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용되지 않는 스토리지를 더 낮은 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>'날짜별 삭제' 형식의 임시 항목에 대해 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
+          <t>'DATE로 삭제' 형식의 임시 항목에 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>관련 서비스 축소 및 성능 향상을 위한 DB 최적화 계획</t>
+          <t>관련 서비스의 크기를 줄이고 성능을 향상시키기 위한 목적으로 DB 최적화를 계획합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>앱을 마이크로 서비스 아키텍처로 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱 크기를 조정할 수 있습니다</t>
+          <t>앱을 마이크로서비스 아키텍처로 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱을 확장할 수 있습니다</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>PaaS 서비스에서 수요 셰이핑을 사용하면 비용과 성능이 최적화됩니다.</t>
+          <t>PaaS 서비스에서 수요 형성을 사용하면 비용과 성능을 최적화할 수 있습니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">어드바이저가 VM 올바른 크기 조정을 위해 구성되어 있는지 확인합니다. </t>
+          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정을 위해 구성되어 있는지 확인합니다. </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>비용 거버넌스 프로세스와 일치하도록 IAC 스크립트 또는 DevOps 파이프라인을 구현하는 것이 좋습니다</t>
+          <t>비용 거버넌스 프로세스와 일치하도록 IAC 스크립트 또는 DevOps 파이프라인을 구현하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>가변 비용이 있는 응용 프로그램에 대한 비용 경고 설정(이상적으로는 모든 응용 프로그램에 해당)Set up cost alerts for applications that have variable costs (이상적으로는 모든 응용 프로그램에 대해)</t>
+          <t>가변 비용이 있는 응용 프로그램에 대한 비용 경고 설정(이상적으로는 모든 응용 프로그램에 대해)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation 사용: 반복적인 작업을 자동화하면 시간과 리소스를 절약하고 프로세스의 비용을 절감할 수 있습니다. </t>
+          <t xml:space="preserve">Azure Automation 사용: 반복적인 작업을 자동화하면 시간과 리소스를 절약하고 프로세스 비용을 절감할 수 있습니다. </t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>분리된 리소스 실행 통합 문서</t>
+          <t>분리된 리소스 통합 문서 실행Run Orphaned Resources Workbook</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>월별 지출의 기준선과 기준선에 대한 수용 가능한 저축 목표를 설정하려고 노력하십시오(새 서비스는 이 단계에서 최적화되지 않음).</t>
+          <t>월별 지출의 기준선과 기준선에 대해 허용 가능한 저축 목표를 설정하려고 합니다(새 서비스는 이 단계에서 최적화되지 않음).</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>리소스를 구성하여 비용 인사이트 및 책임성 극대화</t>
+          <t>비용 통찰력과 책임감을 극대화하기 위해 리소스 구성</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>비용 급증 및 변칙에 대해 매일 확인(이상적으로는 자동 청구 내보내기 사용)Check daily for cost spikes and anomalies (이상적으로는 자동 청구 내보내기를 사용함)</t>
+          <t>비용 급증 및 변칙을 매일 확인(이상적으로는 자동 결제 내보내기 사용)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2520,12 +2520,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>모든 Windows VM에서 스크립트 실행Run the script on all Windows VMs https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM이 자주 만들어지는 경우 정책을 구현하는 것이 좋습니다.</t>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책을 구현하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인하십시오.</t>
+          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>해당되는 경우 Red Hat 라이선스 확인</t>
+          <t>해당하는 경우 Red Hat 라이센스를 확인하십시오.</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB 아래에 배치할 수도 있습니다 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>플랜 절약은 일부 App Service 플랜에 대해 17%를 제공합니다.</t>
+          <t>저장 플랜은 일부 App Service 플랜에 대해 17%를 제공합니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 제품군 이하)consolidate reserved VM families with flexibility option (no more than 4-5 families)</t>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하 제품군)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>예약/저축 플랜</t>
+          <t>예약/절약 플랜</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>예약/저축 플랜</t>
+          <t>예약/절약 플랜</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>동적이고 최대한의 유연성이 필요한 모든 워크로드에 대한 Azure Savings Plans 계획</t>
+          <t>동적이고 최대한의 유연성이 필요한 모든 워크로드에 대한 Azure 절약 플랜 계획</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>예약/저축 플랜</t>
+          <t>예약/절약 플랜</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>덜 동적이고 많이 변경되지 않는 모든 워크로드에 대한 Azure Reservations 계획</t>
+          <t>덜 동적이고 많이 변경되지 않는 모든 워크로드에 대한 Azure 예약 계획</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>정규화 및 합리화된 크기로 VM 예약Reserve VMs with normalized and rationalized sizes</t>
+          <t>정규화 및 합리화된 크기의 VM 예약Reserve VMs with normalized and rationalized sizes</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>적정 크기 조정 최적화 후</t>
+          <t>적절한 크기 최적화 후</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>적용 가능한 경우 확인하고 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
+          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM + 라이선스 부품 할인(ahub+3YRI)은 약 70% 할인입니다.</t>
+          <t>VM + 라이선스 부분 할인(ahub+3YRI)은 약 70% 할인입니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Azure Reservations and Savings 플랜이 100% 사용률에 가까운지 확인하거나 이에 도달하기 위해 필요한 변경을 수행합니다.</t>
+          <t>Azure Reservations 및 Savings 플랜의 사용률이 100%에 가까운지 확인하거나 필요한 변경을 수행하여 도달해야 합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>예약 사용량이 100%에 가까운지 확인합니다. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
+          <t>예약 사용률이 100%에 가까운지 확인합니다. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 프로덕션 서비스에 대한 ON/OFF 정책을 계획하고 적용합니다.</t>
+          <t>가능한 경우 프로덕션 서비스에 대한 ON/OFF 정책을 계획하고 시행합니다</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 ON-DEMAND 정책을 계획하고 시행합니다</t>
+          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 ON-DEMAND 정책을 계획하고 시행합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>플랫 크기 조정이 아닌 수요에 맞게 VMSS를 사용하는 것이 좋습니다.</t>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치합니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
+          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>평균 사용량에 따라 적절한 규모의 PaaS 서비스를 제공하고 자동 또는 수동 크기 조정을 통해 급증을 수용합니다.</t>
+          <t>평균 사용량에 따라 적절한 규모의 PaaS 서비스를 제공하고 자동 또는 수동 크기 조정으로 급증 수용</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>해당하는 경우 수요 형성 계획</t>
+          <t>수요 형성 계획(해당되는 경우)</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 내에서 서비스 크기 조정 논리를 구현하는 것이 좋습니다</t>
+          <t>응용 프로그램 내에서 서비스 크기 조정 논리를 구현하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>해당하는 경우 복구 지점을 vault-archive로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
+          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">가능한 경우 대체가 있는 스폿 VM을 사용하는 것이 좋습니다.클러스터의 자동 종료를 고려합니다 https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
+          <t xml:space="preserve">가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터 자동 종료 고려 https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>기능 - 연결 재사용</t>
+          <t>함수 - 연결 재사용</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 노드 모듈이 많은 Javascript 함수를 사용하면 크게 개선 될 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+          <t>functions - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 기능이 있을 수 있으므로 별도의 사용 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
+          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대해 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수의 컨텍스트에서 요청됩니다 (예 : await Task.Delay(1000) 또는 await client). GetAsync('http://google.com')를 호출합니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 작업은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>'대기 시간'에 대한 요금이 청구됩니까? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 앱의 애플리케이션 설정에서 기본 홈페이지 끄기에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
+          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor -Route to something that returns nothing함수, 함수 프록시를 설정하거나 WebApp에서 200(OK)을 반환하고 콘텐츠를 보내지 않거나 최소한의 콘텐츠를 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+          <t>Frontdoor - 아무 것도 반환하지 않는 것으로 라우팅함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>모든 비프로덕션 환경에 적용 가능한 경우 무료 계층을 사용하는 것이 좋습니다</t>
+          <t>모든 비프로덕션 환경에 적용할 수 있는 경우 무료 계층을 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>스파이크에 서버리스 패턴을 사용하면 비용을 절감하는 데 도움이 될 수 있습니다</t>
+          <t>스파이크에 서버리스 패턴을 사용하면 비용을 절감하는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>사용률이 낮은 데이터에 대한 보관 계층 고려</t>
+          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 추가하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음)</t>
+          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>ASR의 경우 RPO/RTO 및 복제 처리량에서 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
+          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">디스크 - 어디서나 프리미엄 SSD 디스크 사용의 유효성 검사: 예를 들어 제품이 아닌 제품이 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다: 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>예산을 만들어 비용을 관리하고, 이해 관계자에게 지출 이상 및 과다 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
+          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>사용하지 않을 때 리소스를 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
+          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>서버리스 Apache Spark 자동 일시 중지 기능을 사용하도록 설정하고 그에 따라 시간 제한 값을 설정합니다.</t>
+          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>다양한 크기의 여러 Apache Spark 풀 정의를 만듭니다.</t>
+          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics 비용을 절감하기 위해 사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하세요.</t>
+          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>인터럽트 가능한 작업에 SPOT VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 대한 비용 효율적인 솔루션을 제공합니다.</t>
+          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>모든 VM의 크기를 적절하게 조정</t>
+          <t>모든 VM의 적절한 크기 조정</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>정규화된 크기와 최신 크기로 VM 크기 바꾸기</t>
+          <t>VM 크기를 정규화된 크기 및 최신 크기로 교환</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VM 크기 조정 - 사용량을 5% 미만으로 모니터링한 다음, 최대 40%까지 작업</t>
+          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션을 컨테이너화하면 VM 밀도가 향상되고 확장 비용을 절감할 수 있습니다</t>
+          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -8213,7 +8213,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8235,7 +8235,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/spreadsheet/macrofree/cost_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ko.xlsx
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>삭제/아카이브</t>
+          <t>삭제/보관</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>삭제/아카이브</t>
+          <t>삭제/보관</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>다시 알림 및 중지 기술 고려(X일 후 서비스 일시 중지, 2X 후 중지, 3배 후 삭제/할당 취소)</t>
+          <t>다시 알림 및 중지 기술 고려(x일 후 서비스 일시 중지, 2x 후 중지, 3배 후 삭제/할당 취소)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>삭제/아카이브</t>
+          <t>삭제/보관</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>삭제/아카이브</t>
+          <t>삭제/보관</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>중요 업무용이 아닌 응용 프로그램에 대한 Site Recovery 저장소와 Backup 간의 적절한 균형을 고려합니다.</t>
+          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">40개의 서로 다른 Log Analytics 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>분리된 리소스 통합 문서 실행 - 고스트 항목 삭제 또는 일시 중지</t>
+          <t>분리된 리소스 통합 문서 실행 - 고스트 항목 삭제 또는 일시 중지Run orphaned resources workbook - delete or snooze ghost items</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>'DATE로 삭제' 형식의 임시 항목에 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
+          <t>'날짜별 삭제' 형식의 임시 항목에 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,7 +1633,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>DB/APP 튜닝</t>
+          <t>DB/앱 튜닝</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>관련 서비스의 크기를 줄이고 성능을 향상시키기 위한 목적으로 DB 최적화를 계획합니다.</t>
+          <t>관련 서비스를 축소하고 성능을 향상시키기 위해 db 최적화를 계획합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>앱을 마이크로서비스 아키텍처로 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱을 확장할 수 있습니다</t>
+          <t>마이크로서비스 아키텍처로 앱을 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱을 확장할 수 있습니다</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정을 위해 구성되어 있는지 확인합니다. </t>
+          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>비용 거버넌스 프로세스와 일치하도록 IAC 스크립트 또는 DevOps 파이프라인을 구현하는 것이 좋습니다.</t>
+          <t>비용 거버넌스 프로세스와 일치하도록 IaC 스크립트 또는 DevOps 파이프라인을 구현하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>분리된 리소스 통합 문서 실행Run Orphaned Resources Workbook</t>
+          <t>분리된 리소스 통합 문서 실행Run orphaned resources workbook</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>월별 지출의 기준선과 기준선에 대해 허용 가능한 저축 목표를 설정하려고 합니다(새 서비스는 이 단계에서 최적화되지 않음).</t>
+          <t>월별 지출의 기준선과 기준선에 대한 허용 가능한 저축 목표를 설정하려고 노력하십시오(새 서비스는 이 단계에서 최적화되지 않음).</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>비용 분석 - 서비스 이름별로 그룹화된 일별 세분성을 사용하여 지난 3개월 동안의 지출을 분석하고 상위 3개 지출자를 식별합니다.</t>
+          <t>비용 분석 - 서비스 이름별로 그룹화된 일별 세분성을 사용하여 지난 3개월의 지출을 분석하고 상위 3개 지출자를 식별합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>비용 급증 및 변칙을 매일 확인(이상적으로는 자동 결제 내보내기 사용)</t>
+          <t>비용 급증 및 변칙을 매일 확인(이상적으로는 자동 청구 내보내기 사용)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>변경 사항을 추적하고 신속하게 대응하기 위해 예약 자동화를 고려합니다.</t>
+          <t>변경 사항을 추적하고 신속하게 대응하기 위해 예약 자동화 고려</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책을 구현하는 것이 좋습니다.</t>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>해당하는 경우 Red Hat 라이센스를 확인하십시오.</t>
+          <t>해당하는 경우 Red Hat 라이선스 확인</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>저장 플랜은 일부 App Service 플랜에 대해 17%를 제공합니다.</t>
+          <t>요금제를 절약하면 일부 App Service 요금제에 대해 17%가 제공됩니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하 제품군)</t>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>동적이고 최대한의 유연성이 필요한 모든 워크로드에 대한 Azure 절약 플랜 계획</t>
+          <t>동적이고 최대한의 유연성이 필요한 모든 워크로드에 대한 Azure 절약 계획 계획</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>더 큰 디스크만 예약할 수 있습니다 =&gt;1TiB -</t>
+          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>정규화 및 합리화된 크기의 VM 예약Reserve VMs with normalized and rationalized sizes</t>
+          <t>정규화 및 합리화된 크기로 VM 예약Reserve VMs with normalized and rationalized sizes</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM + 라이선스 부분 할인(ahub+3YRI)은 약 70% 할인입니다.</t>
+          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Azure Reservations 및 Savings 플랜의 사용률이 100%에 가까운지 확인하거나 필요한 변경을 수행하여 도달해야 합니다.</t>
+          <t>Azure Reservations 및 Savings 플랜의 사용률이 100%에 가까운지 확인하거나 필요한 변경을 수행하여 100%에 도달해야 합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>예약 사용률이 100%에 가까운지 확인합니다. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
+          <t>예약 사용량이 100%에 가까운지 확인합니다. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 프로덕션 서비스에 대한 ON/OFF 정책을 계획하고 시행합니다</t>
+          <t>가능한 경우 프로덕션 서비스에 대한 On/Off 정책을 계획하고 적용합니다</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 ON-DEMAND 정책을 계획하고 시행합니다.</t>
+          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 주문형 정책을 계획하고 적용합니다</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다.</t>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>평균 사용량에 따라 적절한 규모의 PaaS 서비스를 제공하고 자동 또는 수동 크기 조정으로 급증 수용</t>
+          <t>평균 사용량에 따라 PaaS 서비스 규모를 적절하게 조정하고 자동 또는 수동 크기 조정으로 급증 수용</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터 자동 종료 고려 https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
+          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions - 로컬에서 데이터 캐시</t>
+          <t>함수 - 로컬에 데이터 캐시</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대해 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
+          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3719,7 +3715,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>'대기 시간'에 대한 요금이 청구됩니까? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 아무 것도 반환하지 않는 것으로 라우팅함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4223,7 +4219,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다: 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>VM 크기를 정규화된 크기 및 최신 크기로 교환</t>
+          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>

--- a/spreadsheet/macrofree/cost_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ko.xlsx
@@ -1073,7 +1073,11 @@
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1119,7 +1123,11 @@
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1161,7 +1169,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1199,11 +1211,15 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>다시 알림 및 중지 기술 고려(x일 후 서비스 일시 중지, 2x 후 중지, 3배 후 삭제/할당 취소)</t>
+          <t>다시 알림 및 중지 기술을 고려하십시오 (x 일 후 서비스 일시 중지, 2 배 후 중지, 3 배 후 삭제 / 할당 취소).</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1241,11 +1257,15 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>사용하지 않는 리소스(이전 백업, 로그, 스토리지 계정 등)를 삭제하거나 보관합니다.</t>
+          <t>사용하지 않는 리소스(이전 백업, 로그, 스토리지 계정 등) 삭제 또는 보관Delete or archive unused resources (old backups, logs, storage accounts, etc...)</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1283,11 +1303,15 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
+          <t>사이트 복구 저장소와 중요 업무에 중요하지 않은 응용 프로그램에 대한 백업 간의 적절한 균형을 고려합니다</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1325,11 +1349,15 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 중에서 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용- 인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 최대값에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 공간 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1375,7 +1403,11 @@
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1467,7 +1503,11 @@
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1513,7 +1553,11 @@
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1555,11 +1599,15 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 더 낮은 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1601,11 +1649,15 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>'날짜별 삭제' 형식의 임시 항목에 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
+          <t>'delete by DATE' 형식의 임시 항목에 특정 태그를 사용하고 월별 정리를 자동화합니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1647,7 +1699,11 @@
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1685,11 +1741,15 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>마이크로서비스 아키텍처로 앱을 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱을 확장할 수 있습니다</t>
+          <t>앱을 마이크로서비스 아키텍처로 현대화하면 전체 스택이 아닌 단일 서비스에 따라 앱을 확장할 수 있는 효과가 있습니다</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1731,7 +1791,11 @@
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1773,7 +1837,11 @@
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1815,7 +1883,11 @@
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1857,7 +1929,11 @@
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1899,7 +1975,11 @@
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1936,11 +2016,15 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>가변 비용이 있는 응용 프로그램에 대한 비용 경고 설정(이상적으로는 모든 응용 프로그램에 대해)</t>
+          <t>변동 비용이 있는 응용 프로그램에 대한 비용 경고 설정(이상적으로는 모든 응용 프로그램에 대해)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1977,11 +2061,15 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation 사용: 반복적인 작업을 자동화하면 시간과 리소스를 절약하고 프로세스 비용을 절감할 수 있습니다. </t>
+          <t xml:space="preserve">Azure Automation 사용: 반복 작업을 자동화하면 시간과 리소스를 절약하고 프로세스 비용을 절감할 수 있습니다. </t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2018,11 +2106,15 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>분리된 리소스 통합 문서 실행Run orphaned resources workbook</t>
+          <t>분리된 리소스 통합 문서 실행</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2059,11 +2151,15 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>월별 지출의 기준선과 기준선에 대한 허용 가능한 저축 목표를 설정하려고 노력하십시오(새 서비스는 이 단계에서 최적화되지 않음).</t>
+          <t>월별 지출의 기준선과 기준선에 대해 허용 가능한 저축 목표를 설정하려고 노력하십시오(새 서비스는 이 단계에서 최적화되지 않음).</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2104,7 +2200,11 @@
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2142,11 +2242,15 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>비용 통찰력과 책임감을 극대화하기 위해 리소스 구성</t>
+          <t>비용 통찰력과 책임을 극대화하기 위해 리소스 구성</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2184,11 +2288,15 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>예산 만들기</t>
+          <t>예산 편성</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2230,7 +2338,11 @@
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2268,11 +2380,15 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>비용 급증 및 변칙을 매일 확인(이상적으로는 자동 청구 내보내기 사용)</t>
+          <t>비용 급증 및 이상 징후를 매일 확인(이상적으로는 자동 청구 내보내기 사용)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2310,11 +2426,15 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>심층 분석 또는 통합을 위한 비용 검색 자동화</t>
+          <t>심층적인 분석 또는 통합을 위한 비용 검색 자동화</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2356,7 +2476,11 @@
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2440,7 +2568,11 @@
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2478,11 +2610,15 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>변경 사항을 추적하고 신속하게 대응하기 위해 예약 자동화 고려</t>
+          <t>변경 사항을 추적하고 신속하게 대응하기 위해 예약 자동화를 고려합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2520,15 +2656,19 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책을 구현하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
-        </is>
-      </c>
-      <c r="E42" s="21" t="n"/>
+          <t>Cost analysys에서 Meter Category Licenses(미터 범주 라이선스)를 검색하여 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2561,16 +2701,20 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>해당하는 경우 Red Hat 라이선스 확인</t>
+          <t>해당되는 경우 Red Hat 라이선스 확인</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t xml:space="preserve"> 이미 라이센스가 있는 경우 AHUB 아래에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2608,11 +2752,15 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>요금제를 절약하면 일부 App Service 요금제에 대해 17%가 제공됩니다.</t>
+          <t>저장 요금제는 일부 앱 서비스 요금제에 대해 17%를 제공합니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2650,11 +2798,15 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하 제품군)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2691,7 +2843,7 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>예약/절약 플랜</t>
+          <t>예약/저축 플랜</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2700,7 +2852,11 @@
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2733,16 +2889,20 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>예약/절약 플랜</t>
+          <t>예약/저축 플랜</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>동적이고 최대한의 유연성이 필요한 모든 워크로드에 대한 Azure 절약 계획 계획</t>
+          <t>Azure 절약 계획 동적이며 최대한의 유연성이 필요한 모든 워크로드에 대한 계획</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2775,7 +2935,7 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>예약/절약 플랜</t>
+          <t>예약/저축 플랜</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
@@ -2784,7 +2944,11 @@
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2825,7 +2989,11 @@
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2857,7 +3025,7 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>정규화 및 합리화된 크기로 VM 예약Reserve VMs with normalized and rationalized sizes</t>
+          <t>정규화 및 합리화된 크기의 VM 예약Reserve VMs with normalized and rationalized sizes</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
@@ -2866,7 +3034,11 @@
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2904,11 +3076,15 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
+          <t>적용 가능한 경우 확인하고 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2941,7 +3117,7 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>SQL 데이터베이스 예약</t>
+          <t>SQL Database 예약</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
@@ -2950,7 +3126,11 @@
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2988,11 +3168,15 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Azure Reservations 및 Savings 플랜의 사용률이 100%에 가까운지 확인하거나 필요한 변경을 수행하여 100%에 도달해야 합니다.</t>
+          <t>Azure Reservations 및 절약 플랜의 사용률이 100%에 가까운지 확인하거나 이에 도달하기 위해 필요한 변경을 수행합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3029,11 +3213,15 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>예약 사용량이 100%에 가까운지 확인합니다. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
+          <t>예약 사용률이 100%에 가까운지 확인하세요. 그렇지 않은 경우 허용된 SKU 정책을 적용하거나 예약을 교환합니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3071,11 +3259,15 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 프로덕션 서비스에 대한 On/Off 정책을 계획하고 적용합니다</t>
+          <t>가능한 경우 프로덕션 서비스에 대한 On/Off 정책을 계획하고 시행합니다</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3112,11 +3304,15 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 주문형 정책을 계획하고 적용합니다</t>
+          <t>가능한 경우 비프로덕션 서비스에 대한 자동 종료를 사용하여 주문형 정책을 계획하고 적용합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3153,11 +3349,15 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요를 충족하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3198,7 +3398,11 @@
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3235,11 +3439,15 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>평균 사용량에 따라 PaaS 서비스 규모를 적절하게 조정하고 자동 또는 수동 크기 조정으로 급증 수용</t>
+          <t>평균 사용량에 따라 PaaS 서비스 규모를 적절하게 조정하고 자동 또는 수동 크기 조정으로 급증을 수용합니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3280,7 +3488,11 @@
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3317,11 +3529,15 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 내에서 서비스 크기 조정 논리를 구현하는 것이 좋습니다.</t>
+          <t>응용 프로그램 내에서 서비스 재조정 논리를 구현하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3359,11 +3575,15 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
+          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable(유효성 검사)</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3409,7 +3629,11 @@
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3451,7 +3675,11 @@
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3493,11 +3721,15 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>함수 - 로컬에 데이터 캐시</t>
+          <t>함수 - 로컬에 데이터 캐시Functions - Cache data locally</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3539,11 +3771,15 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이로 인해 노드 모듈이 많은 Javascript 함수가 크게 향상될 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3589,7 +3825,11 @@
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3635,7 +3875,11 @@
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3677,7 +3921,11 @@
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3715,11 +3963,15 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay (1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 가능한 경우 orchestrator functions.apply 수요 형성 기술에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3757,11 +4009,15 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>네트워킹 비용에 대해 네트워크 토폴로지를 평가하고 해당하는 경우 송신 및 피어링 데이터를 줄입니다.</t>
+          <t>네트워킹 비용에 대해 네트워크 토폴로지를 평가하고 해당되는 경우 송신 및 피어링 데이터를 줄입니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3803,7 +4059,11 @@
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3841,11 +4101,15 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 것으로 라우팅합니다. Function, Function Proxy를 설정하거나 WebApp에 200(OK)을 반환하고 콘텐츠를 전송하지 않거나 최소한의 콘텐츠를 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3883,11 +4147,15 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>모든 비프로덕션 환경에 적용할 수 있는 경우 무료 계층을 사용하는 것이 좋습니다</t>
+          <t>모든 비프로덕션 환경에 적용할 수 있는 경우 무료 계층을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3929,7 +4197,11 @@
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3971,7 +4243,11 @@
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4013,7 +4289,11 @@
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4055,7 +4335,11 @@
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4093,11 +4377,15 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
+          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음)</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4139,7 +4427,11 @@
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4181,7 +4473,11 @@
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4219,11 +4515,15 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성: 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4261,11 +4561,15 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
+          <t>예산을 수립하여 비용을 관리하고, 이해관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4307,7 +4611,11 @@
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4349,7 +4657,11 @@
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4391,7 +4703,11 @@
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4475,7 +4795,11 @@
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4512,16 +4836,20 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>가상 머신</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
+          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰하고 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4558,16 +4886,20 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>가상 머신</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>모든 VM의 적절한 크기 조정</t>
+          <t>모든 VM의 적정 크기 조정</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4600,16 +4932,20 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>가상 머신</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+          <t>VM 크기를 정규화된 크기 및 가장 최근 크기로 바꾸기</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4646,16 +4982,20 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>가상 머신</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+          <t>적절한 크기 조정 VM - 사용량이 5% 미만인 모니터링으로 시작한 다음 최대 40%까지 작업</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -4692,16 +5032,20 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>가상 머신</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+          <t>애플리케이션을 컨테이너화하면 VM 밀도가 향상되고 확장 비용을 절감할 수 있습니다</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -8219,7 +8563,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
